--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,82; 31,01</t>
+          <t>21,69; 30,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,11</t>
+          <t>5,33; 13,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,06</t>
+          <t>11,87; 18,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 12,83</t>
+          <t>4,82; 12,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,79</t>
+          <t>17,87; 24,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,46</t>
+          <t>5,97; 11,38</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 31,55</t>
+          <t>23,87; 31,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,32; 28,5</t>
+          <t>18,2; 28,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,77</t>
+          <t>14,79; 20,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,52</t>
+          <t>5,44; 10,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 25,22</t>
+          <t>20,26; 25,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 18,08</t>
+          <t>12,21; 17,85</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,26; 33,58</t>
+          <t>26,0; 33,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,05</t>
+          <t>16,75; 23,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,02</t>
+          <t>14,93; 20,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,33</t>
+          <t>8,87; 12,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,5; 26,15</t>
+          <t>21,47; 26,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 17,65</t>
+          <t>13,35; 17,5</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,56; 39,62</t>
+          <t>31,34; 39,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 27,04</t>
+          <t>18,13; 27,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,75</t>
+          <t>18,05; 24,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,97</t>
+          <t>11,93; 15,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,79; 30,89</t>
+          <t>25,71; 31,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,6</t>
+          <t>16,28; 20,79</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 44,58</t>
+          <t>34,55; 44,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,0; 34,38</t>
+          <t>27,51; 34,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 31,69</t>
+          <t>23,06; 31,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,14</t>
+          <t>13,74; 18,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 36,44</t>
+          <t>29,79; 36,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 25,73</t>
+          <t>21,02; 25,56</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,35; 54,4</t>
+          <t>45,97; 54,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,46</t>
+          <t>34,71; 40,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,6; 42,35</t>
+          <t>35,24; 42,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 32,19</t>
+          <t>19,0; 31,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,16; 46,51</t>
+          <t>40,94; 46,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 34,6</t>
+          <t>24,76; 34,69</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,07; 36,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 26,92</t>
+          <t>23,57; 26,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,31; 25,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 17,21</t>
+          <t>14,42; 17,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,11; 30,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 21,5</t>
+          <t>19,12; 21,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,69; 30,68</t>
+          <t>22,12; 30,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,76</t>
+          <t>11,7; 18,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,0</t>
+          <t>18,05; 23,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,87; 31,44</t>
+          <t>23,91; 31,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,89</t>
+          <t>14,97; 20,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,26; 25,3</t>
+          <t>20,35; 25,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,4</t>
+          <t>25,75; 32,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,75</t>
+          <t>14,9; 20,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,47; 26,24</t>
+          <t>21,52; 26,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 39,12</t>
+          <t>31,4; 39,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,78</t>
+          <t>18,31; 24,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,71; 31,1</t>
+          <t>25,75; 31,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,55; 44,39</t>
+          <t>35,17; 44,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,53</t>
+          <t>23,01; 31,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,79; 36,37</t>
+          <t>30,2; 36,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 54,41</t>
+          <t>46,05; 54,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,24; 42,64</t>
+          <t>34,51; 42,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,94; 46,62</t>
+          <t>40,94; 46,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,41</t>
+          <t>33,11; 36,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,51</t>
+          <t>22,44; 25,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,11; 30,4</t>
+          <t>28,08; 30,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,12; 30,93</t>
+          <t>21,82; 31,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 13,57</t>
+          <t>5,14; 13,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,75</t>
+          <t>11,73; 19,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,17</t>
+          <t>4,96; 12,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,64</t>
+          <t>17,9; 23,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,38</t>
+          <t>5,92; 11,46</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,91; 31,66</t>
+          <t>24,18; 31,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 28,97</t>
+          <t>18,32; 28,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,97</t>
+          <t>14,63; 20,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,51</t>
+          <t>5,5; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,35; 25,21</t>
+          <t>20,03; 25,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,85</t>
+          <t>12,1; 18,08</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 32,94</t>
+          <t>26,26; 33,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,67</t>
+          <t>16,89; 24,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 20,92</t>
+          <t>15,16; 21,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,94</t>
+          <t>8,82; 13,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,52; 26,22</t>
+          <t>21,5; 26,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 17,5</t>
+          <t>13,24; 17,65</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 39,36</t>
+          <t>31,56; 39,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 27,34</t>
+          <t>18,4; 27,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,81</t>
+          <t>18,72; 24,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 15,81</t>
+          <t>11,68; 15,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 31,01</t>
+          <t>25,79; 30,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 20,79</t>
+          <t>16,03; 20,6</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,17; 44,43</t>
+          <t>34,79; 44,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 34,5</t>
+          <t>27,0; 34,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,01; 31,74</t>
+          <t>23,05; 31,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 18,29</t>
+          <t>13,53; 18,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,47</t>
+          <t>30,14; 36,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,02; 25,56</t>
+          <t>21,35; 25,73</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,05; 54,44</t>
+          <t>46,35; 54,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,71; 40,86</t>
+          <t>34,23; 40,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,51; 42,56</t>
+          <t>34,6; 42,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,0; 31,97</t>
+          <t>19,37; 32,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,94; 46,2</t>
+          <t>41,16; 46,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,76; 34,69</t>
+          <t>23,63; 34,6</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,11; 36,46</t>
+          <t>33,07; 36,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,57; 26,94</t>
+          <t>23,44; 26,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,44; 25,43</t>
+          <t>22,62; 25,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,21</t>
+          <t>14,43; 17,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,4</t>
+          <t>28,13; 30,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,12; 21,46</t>
+          <t>19,27; 21,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,11</t>
+          <t>5,01; 13,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 12,83</t>
+          <t>5,2; 13,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,46</t>
+          <t>5,92; 11,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,82%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,32; 28,5</t>
+          <t>19,08; 29,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,52</t>
+          <t>4,24; 9,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 18,08</t>
+          <t>11,24; 18,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,05</t>
+          <t>17,31; 24,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,33</t>
+          <t>8,85; 13,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 17,65</t>
+          <t>13,51; 18,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 27,04</t>
+          <t>9,27; 27,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,97</t>
+          <t>11,1; 15,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,6</t>
+          <t>9,78; 20,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,85%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,0; 34,38</t>
+          <t>27,65; 34,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 18,14</t>
+          <t>13,82; 18,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 25,73</t>
+          <t>21,81; 26,22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>21,49%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,35; 54,4</t>
+          <t>42,52; 54,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,46</t>
+          <t>29,07; 37,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,6; 42,35</t>
+          <t>25,74; 35,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 32,19</t>
+          <t>5,32; 23,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,16; 46,51</t>
+          <t>35,34; 42,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,63; 34,6</t>
+          <t>11,47; 28,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>42,66%</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>47,68; 59,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40,21; 49,55</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40,54; 52,4</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37,95; 44,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44,81; 53,19</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40,01; 45,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>33,07; 36,4</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>23,44; 26,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 26,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>22,62; 25,47</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 17,21</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 16,92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>28,13; 30,36</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 21,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17,13; 21,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,82; 31,01</t>
+          <t>21,93; 30,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 13,06</t>
+          <t>5,01; 13,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,06</t>
+          <t>11,59; 18,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 13,48</t>
+          <t>5,18; 13,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,79</t>
+          <t>17,66; 23,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,71</t>
+          <t>6,13; 11,73</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 31,55</t>
+          <t>23,99; 31,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 29,49</t>
+          <t>18,83; 29,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,77</t>
+          <t>14,7; 20,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,86</t>
+          <t>3,98; 9,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 25,22</t>
+          <t>20,47; 25,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 18,22</t>
+          <t>11,38; 18,03</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,26; 33,58</t>
+          <t>26,03; 33,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 24,4</t>
+          <t>17,1; 24,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,02</t>
+          <t>15,45; 21,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,36</t>
+          <t>8,78; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,5; 26,15</t>
+          <t>21,34; 26,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,05</t>
+          <t>13,53; 17,84</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,56; 39,62</t>
+          <t>31,63; 39,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 27,26</t>
+          <t>8,45; 27,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,75</t>
+          <t>17,9; 24,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,95</t>
+          <t>11,32; 15,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,79; 30,89</t>
+          <t>25,81; 30,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 20,22</t>
+          <t>9,65; 20,36</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 44,58</t>
+          <t>34,98; 44,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,65; 34,94</t>
+          <t>27,63; 35,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 31,69</t>
+          <t>22,74; 31,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,47</t>
+          <t>13,72; 18,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 36,44</t>
+          <t>30,03; 36,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,22</t>
+          <t>21,8; 26,17</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,52; 54,19</t>
+          <t>42,16; 53,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,07; 37,04</t>
+          <t>29,32; 37,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,74; 35,6</t>
+          <t>25,97; 35,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,32; 23,01</t>
+          <t>5,52; 22,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,34; 42,94</t>
+          <t>35,21; 42,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 28,07</t>
+          <t>11,15; 27,84</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,68; 59,04</t>
+          <t>47,52; 59,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,21; 49,55</t>
+          <t>40,26; 49,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40,54; 52,4</t>
+          <t>39,76; 52,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 44,87</t>
+          <t>38,09; 44,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,81; 53,19</t>
+          <t>44,48; 52,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,01; 45,48</t>
+          <t>39,83; 45,56</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,14; 36,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,56</t>
+          <t>18,78; 26,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,56; 25,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,92</t>
+          <t>12,86; 16,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,14; 30,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,31</t>
+          <t>17,03; 21,28</t>
         </is>
       </c>
     </row>
@@ -1252,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se cepilla los dientes una o ninguna vez al día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107601</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33667</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57885</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26456</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>165487</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>60124</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90154; 127231</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20055; 52189</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44832; 72208</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16209; 41448</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>140946; 188450</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43710; 83621</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>160502</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98247</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36591</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>258750</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>138584</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>138788; 181522</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>79737; 124559</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81564; 115586</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20370; 50022</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>232052; 288018</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106409; 168585</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>193989</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109492</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>116170</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>310160</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>168519</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>171430; 219510</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>91706; 129811</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100494; 139048</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47610; 71552</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>279274; 341990</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>145915; 192424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>221741</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>167083</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>137716</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96641</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>359458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>263724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>198911; 246039</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74738; 242937</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114745; 159137</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>80556; 110699</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>327802; 391572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>154066; 324971</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>181297</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>175335</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>130949</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>87618</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>312246</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>262954</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>160469; 203931</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>154543; 197144</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>109692; 151148</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74536; 100030</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>282568; 340541</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>240300; 288500</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>154657</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>120481</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>110394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>88286</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>265052</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>208767</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>135651; 172325</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107306; 135810</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>93782; 128539</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33401; 138432</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>240481; 293534</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>108332; 270515</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>127819</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>123307</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>175279</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>170696</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>303098</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>294003</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>114247; 142518</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>110918; 135748</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>150622; 198231</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>157600; 185597</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>275426; 327036</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>274499; 313996</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1147607</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>831359</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>826642</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>565315</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1974249</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1396675</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1092862; 1205256</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>647156; 915610</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>779455; 872098</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>468059; 617864</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1900490; 2047522</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1206988; 1507856</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>